--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1311662-047E-407C-AFD7-03DEC834B5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BCF554-090F-4213-9C8E-26B3A5C7F451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E257" sqref="E257"/>
+      <selection pane="bottomRight" activeCell="E244" sqref="E244:H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7506,6 +7506,33 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B244">
+        <v>1324</v>
+      </c>
+      <c r="C244">
+        <v>65</v>
+      </c>
+      <c r="D244">
+        <f>AVERAGE(B238:B244)</f>
+        <v>1151.4285714285713</v>
+      </c>
+      <c r="E244">
+        <v>261</v>
+      </c>
+      <c r="F244">
+        <v>-3</v>
+      </c>
+      <c r="G244">
+        <v>137</v>
+      </c>
+      <c r="H244">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7513,6 +7540,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7626,22 +7662,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7657,19 +7692,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BCF554-090F-4213-9C8E-26B3A5C7F451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D4DE8-A9EB-4420-AAEA-2E3E7780DA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,28 +896,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E244" sqref="E244:H244"/>
+      <selection pane="bottomRight" activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="68.7265625" customWidth="1"/>
-    <col min="3" max="3" width="55.26953125" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -957,7 +957,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -975,7 +975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43938</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43939</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43941</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43942</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43943</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43944</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43945</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43946</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43947</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43948</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43949</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43950</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43951</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43952</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43953</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43954</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43955</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43956</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43957</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43958</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43959</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43960</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43961</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43962</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43963</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43964</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43965</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43966</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43967</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43968</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43969</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43970</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43971</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43972</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43973</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43974</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43975</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43976</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43977</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43978</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43979</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43980</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43981</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43982</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43983</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43984</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43985</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43986</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43987</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43988</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43989</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43990</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43991</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43992</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43993</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43994</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43995</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43996</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43997</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43998</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43999</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44000</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44001</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44002</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44003</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44004</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44005</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44006</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44007</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44008</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44009</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44010</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44011</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44012</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44013</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44014</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44015</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44016</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44017</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44019</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44020</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44021</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44022</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44023</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44024</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44025</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44026</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44027</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44028</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44029</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44030</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44031</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44032</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44033</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44034</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44035</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44036</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44037</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44038</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44039</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44040</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44041</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44042</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44043</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44044</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44045</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44046</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44047</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44048</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44049</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44050</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44051</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44052</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44053</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44054</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44055</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44056</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44057</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44058</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44059</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44060</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44061</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44062</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44063</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44064</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44065</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44066</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44067</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44068</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44069</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44070</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44071</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44072</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44073</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44074</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44075</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44076</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44077</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44078</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44079</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44080</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44081</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44082</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44083</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44084</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44085</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44086</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44087</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44088</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44089</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44090</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44091</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44092</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44093</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44094</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44095</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44096</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44097</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44098</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44099</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44100</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44101</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44102</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44103</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44104</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44105</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44106</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44107</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44108</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44109</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44110</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44111</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44112</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44113</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44114</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44115</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44116</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44117</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44118</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44119</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44120</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44121</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44122</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44123</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44124</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44125</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44126</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44127</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44128</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44129</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44130</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44131</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44132</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44133</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44134</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44135</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44136</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44137</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44138</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44139</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44140</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44141</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44142</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44143</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44144</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44145</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44146</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44147</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44148</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44149</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44150</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44151</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44152</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44153</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44154</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44155</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44156</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44157</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44158</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44159</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44160</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44161</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44162</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44164</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44165</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44166</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44167</v>
       </c>
@@ -7531,6 +7531,33 @@
       </c>
       <c r="H244">
         <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B245">
+        <v>1394</v>
+      </c>
+      <c r="C245">
+        <v>70</v>
+      </c>
+      <c r="D245">
+        <f>AVERAGE(B239:B245)</f>
+        <v>1209.7142857142858</v>
+      </c>
+      <c r="E245">
+        <v>278</v>
+      </c>
+      <c r="F245">
+        <v>17</v>
+      </c>
+      <c r="G245">
+        <v>134</v>
+      </c>
+      <c r="H245">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -7540,6 +7567,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7548,7 +7581,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7662,13 +7695,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7676,7 +7712,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7690,13 +7726,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D4DE8-A9EB-4420-AAEA-2E3E7780DA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F025B96-28B5-4148-B95A-A47A233ED252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospitalization from Hospitals" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -896,28 +893,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E259" sqref="E259"/>
+      <selection pane="bottomRight" activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -957,7 +954,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -975,7 +972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -993,7 +990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1069,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43938</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43939</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43941</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43942</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43943</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43944</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43945</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43946</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43947</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43948</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43949</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43950</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43951</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43952</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43953</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43954</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43955</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43956</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43957</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43958</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43959</v>
       </c>
@@ -1841,7 +1838,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43960</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43961</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43962</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43963</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43964</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43965</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43966</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43967</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43968</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43969</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43970</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43971</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43972</v>
       </c>
@@ -2205,7 +2202,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43973</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43974</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43975</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43976</v>
       </c>
@@ -2317,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43977</v>
       </c>
@@ -2345,7 +2342,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43978</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43979</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43980</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43981</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43982</v>
       </c>
@@ -2485,7 +2482,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43983</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43984</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43985</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43986</v>
       </c>
@@ -2597,7 +2594,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43987</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43988</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43989</v>
       </c>
@@ -2681,7 +2678,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43990</v>
       </c>
@@ -2709,7 +2706,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43991</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43992</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43993</v>
       </c>
@@ -2793,7 +2790,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43994</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43995</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43996</v>
       </c>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43997</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43998</v>
       </c>
@@ -2933,7 +2930,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43999</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44000</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44001</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44002</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44003</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44004</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44005</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44006</v>
       </c>
@@ -3157,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44007</v>
       </c>
@@ -3185,7 +3182,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44008</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44009</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44010</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44011</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44012</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44013</v>
       </c>
@@ -3353,7 +3350,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44014</v>
       </c>
@@ -3381,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44015</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44016</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44017</v>
       </c>
@@ -3465,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44019</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44020</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44021</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44022</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44023</v>
       </c>
@@ -3633,7 +3630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44024</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44025</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44026</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44027</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44028</v>
       </c>
@@ -3773,7 +3770,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44029</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44030</v>
       </c>
@@ -3829,7 +3826,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44031</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44032</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44033</v>
       </c>
@@ -3913,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44034</v>
       </c>
@@ -3941,7 +3938,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44035</v>
       </c>
@@ -3969,7 +3966,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44036</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44037</v>
       </c>
@@ -4023,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44038</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44039</v>
       </c>
@@ -4077,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44040</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44041</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44042</v>
       </c>
@@ -4158,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44043</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44044</v>
       </c>
@@ -4212,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44045</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44046</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44047</v>
       </c>
@@ -4293,7 +4290,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44048</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44049</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44050</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44051</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44052</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44053</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44054</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44055</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44056</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44057</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44058</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44059</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44060</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44061</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44062</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44063</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44064</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44065</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44066</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44067</v>
       </c>
@@ -4833,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44068</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44069</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44070</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44071</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44072</v>
       </c>
@@ -4968,7 +4965,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44073</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44074</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44075</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44076</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44077</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44078</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44079</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44080</v>
       </c>
@@ -5184,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44081</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44082</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44083</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44084</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44085</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44086</v>
       </c>
@@ -5346,7 +5343,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44087</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44088</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44089</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44090</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44091</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44092</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44093</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44094</v>
       </c>
@@ -5562,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44095</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44096</v>
       </c>
@@ -5616,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44097</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44098</v>
       </c>
@@ -5670,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44099</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44100</v>
       </c>
@@ -5724,7 +5721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44101</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44102</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44103</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44104</v>
       </c>
@@ -5832,7 +5829,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44105</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44106</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44107</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44108</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44109</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44110</v>
       </c>
@@ -5994,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44111</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44112</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44113</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44114</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44115</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44116</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44117</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44118</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44119</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44120</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44121</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44122</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44123</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44124</v>
       </c>
@@ -6372,7 +6369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44125</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44126</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44127</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44128</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44129</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44130</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44131</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44132</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44133</v>
       </c>
@@ -6615,7 +6612,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44134</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44135</v>
       </c>
@@ -6669,7 +6666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44136</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44137</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44138</v>
       </c>
@@ -6750,7 +6747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44139</v>
       </c>
@@ -6777,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44140</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44141</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44142</v>
       </c>
@@ -6858,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44143</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44144</v>
       </c>
@@ -6912,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44145</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44146</v>
       </c>
@@ -6966,7 +6963,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44147</v>
       </c>
@@ -6993,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44148</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44149</v>
       </c>
@@ -7047,7 +7044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44150</v>
       </c>
@@ -7074,7 +7071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44151</v>
       </c>
@@ -7101,7 +7098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44152</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44153</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44154</v>
       </c>
@@ -7182,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44155</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44156</v>
       </c>
@@ -7236,7 +7233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44157</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44158</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44159</v>
       </c>
@@ -7317,7 +7314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44160</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44161</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44162</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44164</v>
       </c>
@@ -7452,7 +7449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44165</v>
       </c>
@@ -7479,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44166</v>
       </c>
@@ -7506,7 +7503,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44167</v>
       </c>
@@ -7533,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44168</v>
       </c>
@@ -7558,6 +7555,33 @@
       </c>
       <c r="H245">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B246">
+        <v>1428</v>
+      </c>
+      <c r="C246">
+        <v>34</v>
+      </c>
+      <c r="D246">
+        <f>AVERAGE(B240:B246)</f>
+        <v>1264.4285714285713</v>
+      </c>
+      <c r="E246">
+        <v>283</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+      <c r="G246">
+        <v>138</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7573,15 +7597,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7695,6 +7710,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
   <ds:schemaRefs>
@@ -7705,14 +7729,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7726,4 +7742,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F025B96-28B5-4148-B95A-A47A233ED252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20437311-78FC-4597-8BD3-2088E731F4D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C251" sqref="C251"/>
+      <selection pane="bottomRight" activeCell="E248" sqref="E248:H248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7584,6 +7584,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B247">
+        <v>1416</v>
+      </c>
+      <c r="C247">
+        <v>-12</v>
+      </c>
+      <c r="D247">
+        <f>AVERAGE(B241:B247)</f>
+        <v>1312.2857142857142</v>
+      </c>
+      <c r="E247">
+        <v>298</v>
+      </c>
+      <c r="F247">
+        <v>15</v>
+      </c>
+      <c r="G247">
+        <v>139</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7591,12 +7618,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7710,6 +7731,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7720,15 +7747,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7744,6 +7762,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
   <ds:schemaRefs>

--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20437311-78FC-4597-8BD3-2088E731F4D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A3006-4F0D-4148-89EA-F64D43E262CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E248" sqref="E248:H248"/>
+      <selection pane="bottomRight" activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,6 +7611,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B248">
+        <v>1516</v>
+      </c>
+      <c r="C248">
+        <v>100</v>
+      </c>
+      <c r="D248">
+        <f>AVERAGE(B242:B248)</f>
+        <v>1361.1428571428571</v>
+      </c>
+      <c r="E248">
+        <v>302</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248">
+        <v>153</v>
+      </c>
+      <c r="H248">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7618,6 +7645,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7731,12 +7764,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7747,6 +7774,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7762,15 +7798,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
   <ds:schemaRefs>

--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A3006-4F0D-4148-89EA-F64D43E262CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D01321-D4B7-450E-8485-A808745FA482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B252" sqref="B252"/>
+      <selection pane="bottomRight" activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7487,7 +7487,7 @@
         <v>68</v>
       </c>
       <c r="D243">
-        <f>AVERAGE(B237:B243)</f>
+        <f t="shared" ref="D243:D249" si="10">AVERAGE(B237:B243)</f>
         <v>1100.2857142857142</v>
       </c>
       <c r="E243">
@@ -7514,7 +7514,7 @@
         <v>65</v>
       </c>
       <c r="D244">
-        <f>AVERAGE(B238:B244)</f>
+        <f t="shared" si="10"/>
         <v>1151.4285714285713</v>
       </c>
       <c r="E244">
@@ -7541,7 +7541,7 @@
         <v>70</v>
       </c>
       <c r="D245">
-        <f>AVERAGE(B239:B245)</f>
+        <f t="shared" si="10"/>
         <v>1209.7142857142858</v>
       </c>
       <c r="E245">
@@ -7568,7 +7568,7 @@
         <v>34</v>
       </c>
       <c r="D246">
-        <f>AVERAGE(B240:B246)</f>
+        <f t="shared" si="10"/>
         <v>1264.4285714285713</v>
       </c>
       <c r="E246">
@@ -7595,7 +7595,7 @@
         <v>-12</v>
       </c>
       <c r="D247">
-        <f>AVERAGE(B241:B247)</f>
+        <f t="shared" si="10"/>
         <v>1312.2857142857142</v>
       </c>
       <c r="E247">
@@ -7622,7 +7622,7 @@
         <v>100</v>
       </c>
       <c r="D248">
-        <f>AVERAGE(B242:B248)</f>
+        <f t="shared" si="10"/>
         <v>1361.1428571428571</v>
       </c>
       <c r="E248">
@@ -7636,6 +7636,33 @@
       </c>
       <c r="H248">
         <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B249">
+        <v>1552</v>
+      </c>
+      <c r="C249">
+        <v>36</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="10"/>
+        <v>1412.7142857142858</v>
+      </c>
+      <c r="E249">
+        <v>310</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249">
+        <v>166</v>
+      </c>
+      <c r="H249">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7651,6 +7678,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7764,15 +7800,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
   <ds:schemaRefs>
@@ -7783,6 +7810,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7796,12 +7831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D01321-D4B7-450E-8485-A808745FA482}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493979F-BBC1-4658-9334-4FED491F8A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospitalization from Hospitals" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -893,28 +896,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C253" sqref="C253"/>
+      <selection pane="bottomRight" activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -954,7 +957,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -972,7 +975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -990,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43938</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43939</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43941</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43942</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43943</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43944</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43945</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43946</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43947</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43948</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43949</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43950</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43951</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43952</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43953</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43954</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43955</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43956</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43957</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43958</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43959</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43960</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43961</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43962</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43963</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43964</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43965</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43966</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43967</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43968</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43969</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43970</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43971</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43972</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43973</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43974</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43975</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43976</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43977</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43978</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43979</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43980</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43981</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43982</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43983</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43984</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43985</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43986</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43987</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43988</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43989</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43990</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43991</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43992</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43993</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43994</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43995</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43996</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43997</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43998</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43999</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44000</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44001</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44002</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44003</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44004</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44005</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44006</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44007</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44008</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44009</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44010</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44011</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44012</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44013</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44014</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44015</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44016</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44017</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44019</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44020</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44021</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44022</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44023</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44024</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44025</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44026</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44027</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44028</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44029</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44030</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44031</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44032</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44033</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44034</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44035</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44036</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44037</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44038</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44039</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44040</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44041</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44042</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44043</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44044</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44045</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44046</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44047</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44048</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44049</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44050</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44051</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44052</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44053</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44054</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44055</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44056</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44057</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44058</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44059</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44060</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44061</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44062</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44063</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44064</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44065</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44066</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44067</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44068</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44069</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44070</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44071</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44072</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44073</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44074</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44075</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44076</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44077</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44078</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44079</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44080</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44081</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44082</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44083</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44084</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44085</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44086</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44087</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44088</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44089</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44090</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44091</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44092</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44093</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44094</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44095</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44096</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44097</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44098</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44099</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44100</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44101</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44102</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44103</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44104</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44105</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44106</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44107</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44108</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44109</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44110</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44111</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44112</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44113</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44114</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44115</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44116</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44117</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44118</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44119</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44120</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44121</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44122</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44123</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44124</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44125</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44126</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44127</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44128</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44129</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44130</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44131</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44132</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44133</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44134</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44135</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44136</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44137</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44138</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44139</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44140</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44141</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44142</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44143</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44144</v>
       </c>
@@ -6909,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44145</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44146</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44147</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44148</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44149</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44150</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44151</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44152</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44153</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44154</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44155</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44156</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44157</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44158</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44159</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44160</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44161</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44162</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44164</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44165</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44166</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>68</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D249" si="10">AVERAGE(B237:B243)</f>
+        <f t="shared" ref="D243:D250" si="10">AVERAGE(B237:B243)</f>
         <v>1100.2857142857142</v>
       </c>
       <c r="E243">
@@ -7503,7 +7506,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44167</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44168</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44169</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44170</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44171</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44172</v>
       </c>
@@ -7663,6 +7666,33 @@
       </c>
       <c r="H249">
         <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B250">
+        <v>1576</v>
+      </c>
+      <c r="C250">
+        <v>24</v>
+      </c>
+      <c r="D250">
+        <f>AVERAGE(B244:B250)</f>
+        <v>1458</v>
+      </c>
+      <c r="E250">
+        <v>308</v>
+      </c>
+      <c r="F250">
+        <v>-2</v>
+      </c>
+      <c r="G250">
+        <v>162</v>
+      </c>
+      <c r="H250">
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
@@ -7672,12 +7702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7686,7 +7710,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7800,16 +7824,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7817,7 +7838,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7831,4 +7852,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493979F-BBC1-4658-9334-4FED491F8A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7C82A-3C92-4065-8526-9C2BA02E4F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E260" sqref="E260"/>
+      <selection pane="bottomRight" activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7490,7 +7490,7 @@
         <v>68</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D250" si="10">AVERAGE(B237:B243)</f>
+        <f t="shared" ref="D243:D249" si="10">AVERAGE(B237:B243)</f>
         <v>1100.2857142857142</v>
       </c>
       <c r="E243">
@@ -7693,6 +7693,33 @@
       </c>
       <c r="H250">
         <v>-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B251">
+        <v>1607</v>
+      </c>
+      <c r="C251">
+        <v>31</v>
+      </c>
+      <c r="D251">
+        <f>AVERAGE(B245:B251)</f>
+        <v>1498.4285714285713</v>
+      </c>
+      <c r="E251">
+        <v>307</v>
+      </c>
+      <c r="F251">
+        <v>-1</v>
+      </c>
+      <c r="G251">
+        <v>168</v>
+      </c>
+      <c r="H251">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7702,15 +7729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7824,21 +7842,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7854,11 +7873,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7C82A-3C92-4065-8526-9C2BA02E4F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06BB53-1650-4654-9882-A9122DE07CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B277" sqref="B277"/>
+      <selection pane="bottomRight" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7722,6 +7722,33 @@
         <v>6</v>
       </c>
     </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B252">
+        <v>1605</v>
+      </c>
+      <c r="C252">
+        <v>-2</v>
+      </c>
+      <c r="D252">
+        <f>AVERAGE(B246:B252)</f>
+        <v>1528.5714285714287</v>
+      </c>
+      <c r="E252">
+        <v>309</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>165</v>
+      </c>
+      <c r="H252">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7729,6 +7756,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7842,22 +7884,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7871,21 +7915,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06BB53-1650-4654-9882-A9122DE07CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2553E1-8B4C-4502-87D0-AD4E8A28B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B263" sqref="B263"/>
+      <selection pane="bottomRight" activeCell="B259" sqref="B259:G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7747,6 +7747,60 @@
       </c>
       <c r="H252">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B253">
+        <v>1670</v>
+      </c>
+      <c r="C253">
+        <v>65</v>
+      </c>
+      <c r="D253">
+        <f>AVERAGE(B247:B253)</f>
+        <v>1563.1428571428571</v>
+      </c>
+      <c r="E253">
+        <v>334</v>
+      </c>
+      <c r="F253">
+        <v>25</v>
+      </c>
+      <c r="G253">
+        <v>170</v>
+      </c>
+      <c r="H253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B254">
+        <v>1707</v>
+      </c>
+      <c r="C254">
+        <v>37</v>
+      </c>
+      <c r="D254">
+        <f>AVERAGE(B248:B254)</f>
+        <v>1604.7142857142858</v>
+      </c>
+      <c r="E254">
+        <v>342</v>
+      </c>
+      <c r="F254">
+        <v>8</v>
+      </c>
+      <c r="G254">
+        <v>178</v>
+      </c>
+      <c r="H254">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2553E1-8B4C-4502-87D0-AD4E8A28B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F473DFB-6AB5-4D73-880D-FAC31AB819ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B259" sqref="B259:G259"/>
+      <selection pane="bottomRight" activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7679,7 +7679,7 @@
         <v>24</v>
       </c>
       <c r="D250">
-        <f>AVERAGE(B244:B250)</f>
+        <f t="shared" ref="D250:D254" si="11">AVERAGE(B244:B250)</f>
         <v>1458</v>
       </c>
       <c r="E250">
@@ -7706,7 +7706,7 @@
         <v>31</v>
       </c>
       <c r="D251">
-        <f>AVERAGE(B245:B251)</f>
+        <f t="shared" si="11"/>
         <v>1498.4285714285713</v>
       </c>
       <c r="E251">
@@ -7733,7 +7733,7 @@
         <v>-2</v>
       </c>
       <c r="D252">
-        <f>AVERAGE(B246:B252)</f>
+        <f t="shared" si="11"/>
         <v>1528.5714285714287</v>
       </c>
       <c r="E252">
@@ -7760,7 +7760,7 @@
         <v>65</v>
       </c>
       <c r="D253">
-        <f>AVERAGE(B247:B253)</f>
+        <f t="shared" si="11"/>
         <v>1563.1428571428571</v>
       </c>
       <c r="E253">
@@ -7787,7 +7787,7 @@
         <v>37</v>
       </c>
       <c r="D254">
-        <f>AVERAGE(B248:B254)</f>
+        <f t="shared" si="11"/>
         <v>1604.7142857142858</v>
       </c>
       <c r="E254">
@@ -7801,6 +7801,60 @@
       </c>
       <c r="H254">
         <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B255">
+        <v>1788</v>
+      </c>
+      <c r="C255">
+        <v>81</v>
+      </c>
+      <c r="D255">
+        <f>AVERAGE(B249:B255)</f>
+        <v>1643.5714285714287</v>
+      </c>
+      <c r="E255">
+        <v>354</v>
+      </c>
+      <c r="F255">
+        <v>12</v>
+      </c>
+      <c r="G255">
+        <v>186</v>
+      </c>
+      <c r="H255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B256">
+        <v>1834</v>
+      </c>
+      <c r="C256">
+        <v>46</v>
+      </c>
+      <c r="D256">
+        <f>AVERAGE(B250:B256)</f>
+        <v>1683.8571428571429</v>
+      </c>
+      <c r="E256">
+        <v>371</v>
+      </c>
+      <c r="F256">
+        <v>17</v>
+      </c>
+      <c r="G256">
+        <v>200</v>
+      </c>
+      <c r="H256">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7810,21 +7864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7938,24 +7977,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7969,4 +8006,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F473DFB-6AB5-4D73-880D-FAC31AB819ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3066ED2-E8F7-4D9A-AF79-7D00A6762D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B273" sqref="B273"/>
+      <selection pane="bottomRight" activeCell="E257" sqref="E257:H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7857,6 +7857,33 @@
         <v>14</v>
       </c>
     </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B257">
+        <v>1851</v>
+      </c>
+      <c r="C257">
+        <v>17</v>
+      </c>
+      <c r="D257">
+        <f>AVERAGE(B251:B257)</f>
+        <v>1723.1428571428571</v>
+      </c>
+      <c r="E257">
+        <v>382</v>
+      </c>
+      <c r="F257">
+        <v>11</v>
+      </c>
+      <c r="G257">
+        <v>205</v>
+      </c>
+      <c r="H257">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7864,6 +7891,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7977,22 +8019,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8006,21 +8050,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3066ED2-E8F7-4D9A-AF79-7D00A6762D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE20E2B-0D0C-4CC9-B525-6E4C618427BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E257" sqref="E257:H257"/>
+      <selection pane="bottomRight" activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7884,6 +7884,60 @@
         <v>5</v>
       </c>
     </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B258">
+        <v>1871</v>
+      </c>
+      <c r="C258">
+        <v>20</v>
+      </c>
+      <c r="D258">
+        <f>AVERAGE(B252:B258)</f>
+        <v>1760.8571428571429</v>
+      </c>
+      <c r="E258">
+        <v>383</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>207</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B259">
+        <v>1874</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <f>AVERAGE(B253:B259)</f>
+        <v>1799.2857142857142</v>
+      </c>
+      <c r="E259">
+        <v>370</v>
+      </c>
+      <c r="F259">
+        <v>-13</v>
+      </c>
+      <c r="G259">
+        <v>204</v>
+      </c>
+      <c r="H259">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7891,18 +7945,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8020,18 +8074,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE20E2B-0D0C-4CC9-B525-6E4C618427BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAB4D3-636F-49E3-B42D-2D456521CEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C268" sqref="C268"/>
+      <selection pane="bottomRight" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7814,7 +7814,7 @@
         <v>81</v>
       </c>
       <c r="D255">
-        <f>AVERAGE(B249:B255)</f>
+        <f t="shared" ref="D255:D259" si="12">AVERAGE(B249:B255)</f>
         <v>1643.5714285714287</v>
       </c>
       <c r="E255">
@@ -7841,7 +7841,7 @@
         <v>46</v>
       </c>
       <c r="D256">
-        <f>AVERAGE(B250:B256)</f>
+        <f t="shared" si="12"/>
         <v>1683.8571428571429</v>
       </c>
       <c r="E256">
@@ -7868,7 +7868,7 @@
         <v>17</v>
       </c>
       <c r="D257">
-        <f>AVERAGE(B251:B257)</f>
+        <f t="shared" si="12"/>
         <v>1723.1428571428571</v>
       </c>
       <c r="E257">
@@ -7895,7 +7895,7 @@
         <v>20</v>
       </c>
       <c r="D258">
-        <f>AVERAGE(B252:B258)</f>
+        <f t="shared" si="12"/>
         <v>1760.8571428571429</v>
       </c>
       <c r="E258">
@@ -7922,7 +7922,7 @@
         <v>3</v>
       </c>
       <c r="D259">
-        <f>AVERAGE(B253:B259)</f>
+        <f t="shared" si="12"/>
         <v>1799.2857142857142</v>
       </c>
       <c r="E259">
@@ -7936,6 +7936,33 @@
       </c>
       <c r="H259">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B260">
+        <v>1927</v>
+      </c>
+      <c r="C260">
+        <v>53</v>
+      </c>
+      <c r="D260">
+        <f>AVERAGE(B254:B261)</f>
+        <v>1836</v>
+      </c>
+      <c r="E260">
+        <v>383</v>
+      </c>
+      <c r="F260">
+        <v>13</v>
+      </c>
+      <c r="G260">
+        <v>196</v>
+      </c>
+      <c r="H260">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
@@ -7945,21 +7972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -8073,24 +8085,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8104,4 +8114,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAB4D3-636F-49E3-B42D-2D456521CEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A6165-3791-492C-A691-763823A64D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospitalization from Hospitals" sheetId="1" r:id="rId1"/>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F274" sqref="F274"/>
+      <selection pane="bottomRight" activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="D260">
         <f>AVERAGE(B254:B261)</f>
-        <v>1836</v>
+        <v>1846.375</v>
       </c>
       <c r="E260">
         <v>383</v>
@@ -7963,6 +7963,60 @@
       </c>
       <c r="H260">
         <v>-8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B261">
+        <v>1919</v>
+      </c>
+      <c r="C261">
+        <v>-8</v>
+      </c>
+      <c r="D261">
+        <f>AVERAGE(B255:B262)</f>
+        <v>1881.875</v>
+      </c>
+      <c r="E261">
+        <v>387</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261">
+        <v>205</v>
+      </c>
+      <c r="H261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B262">
+        <v>1991</v>
+      </c>
+      <c r="C262">
+        <v>72</v>
+      </c>
+      <c r="D262">
+        <f>AVERAGE(B256:B263)</f>
+        <v>1895.2857142857142</v>
+      </c>
+      <c r="E262">
+        <v>410</v>
+      </c>
+      <c r="F262">
+        <v>23</v>
+      </c>
+      <c r="G262">
+        <v>215</v>
+      </c>
+      <c r="H262">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A6165-3791-492C-A691-763823A64D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D086E-6409-4B4B-8DD6-6827BEE297A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D274" sqref="D274"/>
+      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="D262">
         <f>AVERAGE(B256:B263)</f>
-        <v>1895.2857142857142</v>
+        <v>1908.875</v>
       </c>
       <c r="E262">
         <v>410</v>
@@ -8017,6 +8017,33 @@
       </c>
       <c r="H262">
         <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B263">
+        <v>2004</v>
+      </c>
+      <c r="C263">
+        <v>13</v>
+      </c>
+      <c r="D263">
+        <f>AVERAGE(B257:B264)</f>
+        <v>1919.5714285714287</v>
+      </c>
+      <c r="E263">
+        <v>412</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <v>233</v>
+      </c>
+      <c r="H263">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8026,6 +8053,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -8139,22 +8181,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8168,21 +8212,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D086E-6409-4B4B-8DD6-6827BEE297A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4618F-E615-4E41-9D31-97E08E86F2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
@@ -7949,7 +7949,7 @@
         <v>53</v>
       </c>
       <c r="D260">
-        <f>AVERAGE(B254:B261)</f>
+        <f t="shared" ref="D260:D265" si="13">AVERAGE(B254:B261)</f>
         <v>1846.375</v>
       </c>
       <c r="E260">
@@ -7976,7 +7976,7 @@
         <v>-8</v>
       </c>
       <c r="D261">
-        <f>AVERAGE(B255:B262)</f>
+        <f t="shared" si="13"/>
         <v>1881.875</v>
       </c>
       <c r="E261">
@@ -8003,7 +8003,7 @@
         <v>72</v>
       </c>
       <c r="D262">
-        <f>AVERAGE(B256:B263)</f>
+        <f t="shared" si="13"/>
         <v>1908.875</v>
       </c>
       <c r="E262">
@@ -8030,8 +8030,8 @@
         <v>13</v>
       </c>
       <c r="D263">
-        <f>AVERAGE(B257:B264)</f>
-        <v>1919.5714285714287</v>
+        <f t="shared" si="13"/>
+        <v>1937.875</v>
       </c>
       <c r="E263">
         <v>412</v>
@@ -8044,6 +8044,60 @@
       </c>
       <c r="H263">
         <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B264">
+        <v>2066</v>
+      </c>
+      <c r="C264">
+        <v>62</v>
+      </c>
+      <c r="D264">
+        <f>AVERAGE(B258:B265)</f>
+        <v>1968.375</v>
+      </c>
+      <c r="E264">
+        <v>409</v>
+      </c>
+      <c r="F264">
+        <v>-3</v>
+      </c>
+      <c r="G264">
+        <v>226</v>
+      </c>
+      <c r="H264">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B265">
+        <v>2095</v>
+      </c>
+      <c r="C265">
+        <v>29</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="13"/>
+        <v>1982.2857142857142</v>
+      </c>
+      <c r="E265">
+        <v>409</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>232</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8053,21 +8107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -8181,24 +8220,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8212,4 +8249,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4618F-E615-4E41-9D31-97E08E86F2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81611EF-ADD7-4810-ABB4-90854D1D7123}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospitalization from Hospitals" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -896,28 +893,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
+      <selection pane="bottomRight" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43925</v>
       </c>
@@ -957,7 +954,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43926</v>
       </c>
@@ -975,7 +972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -993,7 +990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
@@ -1069,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43932</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43933</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43934</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43935</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43936</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43937</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43938</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43939</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43941</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43942</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43943</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43944</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43945</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43946</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43947</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43948</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43949</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43950</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43951</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43952</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43953</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43954</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43955</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43956</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43957</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43958</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43959</v>
       </c>
@@ -1841,7 +1838,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43960</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43961</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43962</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43963</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43964</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43965</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43966</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43967</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43968</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43969</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43970</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43971</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43972</v>
       </c>
@@ -2205,7 +2202,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43973</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43974</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43975</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43976</v>
       </c>
@@ -2317,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43977</v>
       </c>
@@ -2345,7 +2342,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43978</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43979</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43980</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43981</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43982</v>
       </c>
@@ -2485,7 +2482,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43983</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43984</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43985</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43986</v>
       </c>
@@ -2597,7 +2594,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43987</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43988</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43989</v>
       </c>
@@ -2681,7 +2678,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43990</v>
       </c>
@@ -2709,7 +2706,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43991</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43992</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43993</v>
       </c>
@@ -2793,7 +2790,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43994</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43995</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43996</v>
       </c>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43997</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43998</v>
       </c>
@@ -2933,7 +2930,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43999</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44000</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44001</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44002</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44003</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44004</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44005</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44006</v>
       </c>
@@ -3157,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44007</v>
       </c>
@@ -3185,7 +3182,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44008</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44009</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44010</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44011</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44012</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44013</v>
       </c>
@@ -3353,7 +3350,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44014</v>
       </c>
@@ -3381,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44015</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44016</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44017</v>
       </c>
@@ -3465,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44019</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44020</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44021</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44022</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44023</v>
       </c>
@@ -3633,7 +3630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44024</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44025</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44026</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44027</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44028</v>
       </c>
@@ -3773,7 +3770,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44029</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44030</v>
       </c>
@@ -3829,7 +3826,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44031</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44032</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44033</v>
       </c>
@@ -3913,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44034</v>
       </c>
@@ -3941,7 +3938,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44035</v>
       </c>
@@ -3969,7 +3966,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44036</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44037</v>
       </c>
@@ -4023,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44038</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44039</v>
       </c>
@@ -4077,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44040</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44041</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44042</v>
       </c>
@@ -4158,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44043</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44044</v>
       </c>
@@ -4212,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44045</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44046</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44047</v>
       </c>
@@ -4293,7 +4290,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44048</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44049</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44050</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44051</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44052</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44053</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44054</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44055</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44056</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44057</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44058</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44059</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44060</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44061</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44062</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44063</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44064</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44065</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44066</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44067</v>
       </c>
@@ -4833,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44068</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44069</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44070</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44071</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44072</v>
       </c>
@@ -4968,7 +4965,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44073</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44074</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44075</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44076</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44077</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44078</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44079</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44080</v>
       </c>
@@ -5184,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44081</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44082</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44083</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44084</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44085</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44086</v>
       </c>
@@ -5346,7 +5343,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44087</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44088</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44089</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44090</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44091</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44092</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44093</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44094</v>
       </c>
@@ -5562,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44095</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44096</v>
       </c>
@@ -5616,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44097</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44098</v>
       </c>
@@ -5670,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44099</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44100</v>
       </c>
@@ -5724,7 +5721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44101</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44102</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44103</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44104</v>
       </c>
@@ -5832,7 +5829,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44105</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44106</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44107</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44108</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44109</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44110</v>
       </c>
@@ -5994,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44111</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44112</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44113</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44114</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44115</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44116</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44117</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44118</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44119</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44120</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44121</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44122</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44123</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44124</v>
       </c>
@@ -6372,7 +6369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44125</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44126</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44127</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44128</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44129</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44130</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44131</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44132</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44133</v>
       </c>
@@ -6615,7 +6612,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44134</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44135</v>
       </c>
@@ -6669,7 +6666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44136</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44137</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44138</v>
       </c>
@@ -6750,7 +6747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44139</v>
       </c>
@@ -6777,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44140</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44141</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44142</v>
       </c>
@@ -6858,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44143</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44144</v>
       </c>
@@ -6912,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44145</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44146</v>
       </c>
@@ -6966,7 +6963,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44147</v>
       </c>
@@ -6993,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44148</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44149</v>
       </c>
@@ -7047,7 +7044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44150</v>
       </c>
@@ -7074,7 +7071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44151</v>
       </c>
@@ -7101,7 +7098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44152</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44153</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44154</v>
       </c>
@@ -7182,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44155</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44156</v>
       </c>
@@ -7236,7 +7233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44157</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44158</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44159</v>
       </c>
@@ -7317,7 +7314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44160</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44161</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44162</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44164</v>
       </c>
@@ -7452,7 +7449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44165</v>
       </c>
@@ -7479,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44166</v>
       </c>
@@ -7506,7 +7503,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44167</v>
       </c>
@@ -7533,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44168</v>
       </c>
@@ -7560,7 +7557,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44169</v>
       </c>
@@ -7587,7 +7584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44170</v>
       </c>
@@ -7614,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44171</v>
       </c>
@@ -7641,7 +7638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44172</v>
       </c>
@@ -7668,7 +7665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44173</v>
       </c>
@@ -7695,7 +7692,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44174</v>
       </c>
@@ -7722,7 +7719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44175</v>
       </c>
@@ -7749,7 +7746,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44176</v>
       </c>
@@ -7776,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44177</v>
       </c>
@@ -7803,7 +7800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44178</v>
       </c>
@@ -7814,7 +7811,7 @@
         <v>81</v>
       </c>
       <c r="D255">
-        <f t="shared" ref="D255:D259" si="12">AVERAGE(B249:B255)</f>
+        <f t="shared" ref="D255:D268" si="12">AVERAGE(B249:B255)</f>
         <v>1643.5714285714287</v>
       </c>
       <c r="E255">
@@ -7830,7 +7827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44179</v>
       </c>
@@ -7857,7 +7854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44180</v>
       </c>
@@ -7884,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44181</v>
       </c>
@@ -7895,7 +7892,7 @@
         <v>20</v>
       </c>
       <c r="D258">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(B252:B258)</f>
         <v>1760.8571428571429</v>
       </c>
       <c r="E258">
@@ -7911,7 +7908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44182</v>
       </c>
@@ -7938,7 +7935,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44183</v>
       </c>
@@ -7949,8 +7946,8 @@
         <v>53</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:D265" si="13">AVERAGE(B254:B261)</f>
-        <v>1846.375</v>
+        <f>AVERAGE(B254:B260)</f>
+        <v>1836</v>
       </c>
       <c r="E260">
         <v>383</v>
@@ -7965,7 +7962,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44184</v>
       </c>
@@ -7976,8 +7973,8 @@
         <v>-8</v>
       </c>
       <c r="D261">
-        <f t="shared" si="13"/>
-        <v>1881.875</v>
+        <f>AVERAGE(B255:B261)</f>
+        <v>1866.2857142857142</v>
       </c>
       <c r="E261">
         <v>387</v>
@@ -7992,7 +7989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44185</v>
       </c>
@@ -8003,8 +8000,8 @@
         <v>72</v>
       </c>
       <c r="D262">
-        <f t="shared" si="13"/>
-        <v>1908.875</v>
+        <f t="shared" si="12"/>
+        <v>1895.2857142857142</v>
       </c>
       <c r="E262">
         <v>410</v>
@@ -8019,7 +8016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44186</v>
       </c>
@@ -8030,8 +8027,8 @@
         <v>13</v>
       </c>
       <c r="D263">
-        <f t="shared" si="13"/>
-        <v>1937.875</v>
+        <f t="shared" si="12"/>
+        <v>1919.5714285714287</v>
       </c>
       <c r="E263">
         <v>412</v>
@@ -8046,7 +8043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44187</v>
       </c>
@@ -8057,8 +8054,8 @@
         <v>62</v>
       </c>
       <c r="D264">
-        <f>AVERAGE(B258:B265)</f>
-        <v>1968.375</v>
+        <f t="shared" si="12"/>
+        <v>1950.2857142857142</v>
       </c>
       <c r="E264">
         <v>409</v>
@@ -8073,7 +8070,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44188</v>
       </c>
@@ -8084,7 +8081,7 @@
         <v>29</v>
       </c>
       <c r="D265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1982.2857142857142</v>
       </c>
       <c r="E265">
@@ -8098,6 +8095,87 @@
       </c>
       <c r="H265">
         <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B266">
+        <v>2091</v>
+      </c>
+      <c r="C266">
+        <v>-4</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="12"/>
+        <v>2013.2857142857142</v>
+      </c>
+      <c r="E266">
+        <v>409</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>250</v>
+      </c>
+      <c r="H266">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B267">
+        <v>2077</v>
+      </c>
+      <c r="C267">
+        <v>-14</v>
+      </c>
+      <c r="D267">
+        <f>AVERAGE(B261:B267)</f>
+        <v>2034.7142857142858</v>
+      </c>
+      <c r="E267">
+        <v>416</v>
+      </c>
+      <c r="F267">
+        <v>7</v>
+      </c>
+      <c r="G267">
+        <v>232</v>
+      </c>
+      <c r="H267">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B268">
+        <v>2156</v>
+      </c>
+      <c r="C268">
+        <v>79</v>
+      </c>
+      <c r="D268">
+        <f>AVERAGE(B262:B268)</f>
+        <v>2068.5714285714284</v>
+      </c>
+      <c r="E268">
+        <v>416</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>230</v>
+      </c>
+      <c r="H268">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -8107,6 +8185,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -8220,22 +8313,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B0AF29-C831-494C-920A-F19F915106C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8249,21 +8344,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEBDC9A-4768-4855-86C8-346DB471639E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C35922-DA19-44F6-B653-BE41CA0452B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Hospitalization from Hospitals.xlsx
+++ b/data/Hospitalization from Hospitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81611EF-ADD7-4810-ABB4-90854D1D7123}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C41E60-EDEE-4774-B5EC-248B5D38D5E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F274" sqref="F274"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276:H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7811,7 +7811,7 @@
         <v>81</v>
       </c>
       <c r="D255">
-        <f t="shared" ref="D255:D268" si="12">AVERAGE(B249:B255)</f>
+        <f t="shared" ref="D255:D266" si="12">AVERAGE(B249:B255)</f>
         <v>1643.5714285714287</v>
       </c>
       <c r="E255">
@@ -8176,6 +8176,168 @@
       </c>
       <c r="H268">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B269">
+        <v>2232</v>
+      </c>
+      <c r="C269">
+        <v>76</v>
+      </c>
+      <c r="D269">
+        <f>AVERAGE(B263:B268)</f>
+        <v>2081.5</v>
+      </c>
+      <c r="E269">
+        <v>431</v>
+      </c>
+      <c r="F269">
+        <v>15</v>
+      </c>
+      <c r="G269">
+        <v>234</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B270">
+        <v>2259</v>
+      </c>
+      <c r="C270">
+        <v>27</v>
+      </c>
+      <c r="D270">
+        <f>AVERAGE(B264:B270)</f>
+        <v>2139.4285714285716</v>
+      </c>
+      <c r="E270">
+        <v>431</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>225</v>
+      </c>
+      <c r="H270">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B271">
+        <v>2257</v>
+      </c>
+      <c r="C271">
+        <v>-2</v>
+      </c>
+      <c r="D271">
+        <f>AVERAGE(B265:B271)</f>
+        <v>2166.7142857142858</v>
+      </c>
+      <c r="E271">
+        <v>433</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>231</v>
+      </c>
+      <c r="H271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B272">
+        <v>2271</v>
+      </c>
+      <c r="C272">
+        <v>14</v>
+      </c>
+      <c r="D272">
+        <f>AVERAGE(B266:B272)</f>
+        <v>2191.8571428571427</v>
+      </c>
+      <c r="E272">
+        <v>417</v>
+      </c>
+      <c r="F272">
+        <v>-16</v>
+      </c>
+      <c r="G272">
+        <v>240</v>
+      </c>
+      <c r="H272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B273">
+        <v>2323</v>
+      </c>
+      <c r="C273">
+        <v>52</v>
+      </c>
+      <c r="D273">
+        <f t="shared" ref="D273" si="13">AVERAGE(B267:B273)</f>
+        <v>2225</v>
+      </c>
+      <c r="E273">
+        <v>429</v>
+      </c>
+      <c r="F273">
+        <v>12</v>
+      </c>
+      <c r="G273">
+        <v>258</v>
+      </c>
+      <c r="H273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B274">
+        <v>2280</v>
+      </c>
+      <c r="C274">
+        <v>-43</v>
+      </c>
+      <c r="D274">
+        <f>AVERAGE(B268:B274)</f>
+        <v>2254</v>
+      </c>
+      <c r="E274">
+        <v>412</v>
+      </c>
+      <c r="F274">
+        <v>-17</v>
+      </c>
+      <c r="G274">
+        <v>246</v>
+      </c>
+      <c r="H274">
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
